--- a/spec/fixtures/Small.xlsx
+++ b/spec/fixtures/Small.xlsx
@@ -27,7 +27,15 @@
     <t>10th</t>
   </si>
   <si>
-    <t>vlagusta@aol.com</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>financial@kristoffs.com</t>
+    </r>
   </si>
   <si>
     <t>Ang</t>
@@ -36,7 +44,15 @@
     <t>Catherine</t>
   </si>
   <si>
-    <t>joan3@nc.rr.com</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>photo@kristoffs.com</t>
+    </r>
   </si>
   <si>
     <t>Year 2 Candidates attending the Catholic HS teens sessions</t>
@@ -48,7 +64,15 @@
     <t>Robert</t>
   </si>
   <si>
-    <t>lannunz@nc.rr.com; rannunz@nc.rr.com</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>retail@kristoffs.com</t>
+    </r>
   </si>
   <si>
     <t>Bartos</t>
@@ -57,7 +81,15 @@
     <t>Britney</t>
   </si>
   <si>
-    <t>tonya_bartos@hotmail.com</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>justfaith@kristoffs.com</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -67,7 +99,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -91,6 +123,12 @@
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <u val="single"/>
+      <sz val="11"/>
+      <color indexed="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -106,7 +144,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -129,13 +167,100 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -145,13 +270,37 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -179,6 +328,7 @@
       <rgbColor rgb="ff000000"/>
       <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ff0000ff"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -329,9 +479,9 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -411,7 +561,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -439,10 +589,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -698,9 +848,9 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
+              <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
@@ -988,7 +1138,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1016,10 +1166,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1270,19 +1420,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="13.3516" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.85156" style="1" customWidth="1"/>
-    <col min="4" max="4" width="46.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85156" style="1" customWidth="1"/>
     <col min="6" max="6" width="8.85156" style="1" customWidth="1"/>
-    <col min="7" max="256" width="8.85156" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85156" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85156" style="1" customWidth="1"/>
+    <col min="9" max="256" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
@@ -1294,38 +1446,44 @@
       <c r="D1" s="4"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="2" ht="15" customHeight="1">
-      <c r="A2" t="s" s="5">
+      <c r="A2" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="5">
+      <c r="B2" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="5">
+      <c r="C2" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="5">
+      <c r="D2" t="s" s="4">
         <v>4</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
     </row>
     <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="s" s="5">
+      <c r="A3" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="B3" t="s" s="5">
+      <c r="B3" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="C3" t="s" s="5">
+      <c r="C3" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D3" t="s" s="5">
+      <c r="D3" t="s" s="4">
         <v>7</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
     </row>
     <row r="4" ht="15" customHeight="1">
       <c r="A4" s="3"/>
@@ -1334,6 +1492,8 @@
       <c r="D4" s="4"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
     </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="s" s="2">
@@ -1344,36 +1504,78 @@
       <c r="D5" s="4"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
     </row>
     <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="s" s="5">
+      <c r="A6" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B6" t="s" s="5">
+      <c r="B6" t="s" s="4">
         <v>10</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" t="s" s="5">
+      <c r="D6" t="s" s="4">
         <v>11</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
     </row>
     <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="s" s="5">
+      <c r="A7" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="B7" t="s" s="5">
+      <c r="B7" t="s" s="4">
         <v>13</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="D7" t="s" s="5">
+      <c r="D7" t="s" s="4">
         <v>14</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="13"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" location="" tooltip="" display=""/>
+    <hyperlink ref="D3" r:id="rId2" location="" tooltip="" display=""/>
+    <hyperlink ref="D6" r:id="rId3" location="" tooltip="" display=""/>
+    <hyperlink ref="D7" r:id="rId4" location="" tooltip="" display=""/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
@@ -1388,14 +1590,14 @@
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.85156" style="6" customWidth="1"/>
-    <col min="3" max="3" width="8.85156" style="6" customWidth="1"/>
-    <col min="4" max="4" width="8.85156" style="6" customWidth="1"/>
-    <col min="5" max="5" width="8.85156" style="6" customWidth="1"/>
-    <col min="6" max="256" width="8.85156" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.85156" style="14" customWidth="1"/>
+    <col min="2" max="2" width="8.85156" style="14" customWidth="1"/>
+    <col min="3" max="3" width="8.85156" style="14" customWidth="1"/>
+    <col min="4" max="4" width="8.85156" style="14" customWidth="1"/>
+    <col min="5" max="5" width="8.85156" style="14" customWidth="1"/>
+    <col min="6" max="256" width="8.85156" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
@@ -1483,14 +1685,14 @@
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="7" customWidth="1"/>
-    <col min="2" max="2" width="8.85156" style="7" customWidth="1"/>
-    <col min="3" max="3" width="8.85156" style="7" customWidth="1"/>
-    <col min="4" max="4" width="8.85156" style="7" customWidth="1"/>
-    <col min="5" max="5" width="8.85156" style="7" customWidth="1"/>
-    <col min="6" max="256" width="8.85156" style="7" customWidth="1"/>
+    <col min="1" max="1" width="8.85156" style="15" customWidth="1"/>
+    <col min="2" max="2" width="8.85156" style="15" customWidth="1"/>
+    <col min="3" max="3" width="8.85156" style="15" customWidth="1"/>
+    <col min="4" max="4" width="8.85156" style="15" customWidth="1"/>
+    <col min="5" max="5" width="8.85156" style="15" customWidth="1"/>
+    <col min="6" max="256" width="8.85156" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">

--- a/spec/fixtures/Small.xlsx
+++ b/spec/fixtures/Small.xlsx
@@ -13,9 +13,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
   <si>
-    <t>Year 2 Candidates attending The Way</t>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>1st name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grade </t>
+  </si>
+  <si>
+    <t>parents preferred email</t>
+  </si>
+  <si>
+    <t>Cardinal Gibbons HS Group</t>
   </si>
   <si>
     <t>Agusta</t>
@@ -53,9 +65,6 @@
       </rPr>
       <t>photo@kristoffs.com</t>
     </r>
-  </si>
-  <si>
-    <t>Year 2 Candidates attending the Catholic HS teens sessions</t>
   </si>
   <si>
     <t>Annunziata</t>
@@ -99,7 +108,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -117,7 +126,6 @@
     </font>
     <font>
       <b val="1"/>
-      <i val="1"/>
       <u val="single"/>
       <sz val="11"/>
       <color indexed="8"/>
@@ -127,6 +135,14 @@
       <u val="single"/>
       <sz val="11"/>
       <color indexed="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="1"/>
+      <u val="single"/>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -144,7 +160,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -156,6 +172,28 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="10"/>
       </right>
@@ -165,6 +203,45 @@
       <bottom style="thin">
         <color indexed="10"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -184,26 +261,6 @@
       <top style="thin">
         <color indexed="10"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -219,6 +276,26 @@
       <right style="thin">
         <color indexed="10"/>
       </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -260,7 +337,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -270,25 +347,25 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -301,6 +378,21 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -1429,8 +1521,8 @@
     <col min="1" max="1" width="13.3516" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.85156" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85156" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.8516" style="1" customWidth="1"/>
     <col min="6" max="6" width="8.85156" style="1" customWidth="1"/>
     <col min="7" max="7" width="8.85156" style="1" customWidth="1"/>
     <col min="8" max="8" width="8.85156" style="1" customWidth="1"/>
@@ -1441,133 +1533,143 @@
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="B1" t="s" s="3">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="3">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="3">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="4">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" ht="15" customHeight="1">
-      <c r="A2" t="s" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s" s="4">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s" s="4">
+      <c r="A2" t="s" s="6">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s" s="6">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s" s="6">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s" s="6">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s" s="6">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s" s="6">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" s="7"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s" s="6">
+        <v>13</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" t="s" s="6">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s" s="8">
         <v>4</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="s" s="4">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s" s="4">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s" s="4">
-        <v>7</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="s" s="4">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s" s="4">
-        <v>10</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
     </row>
     <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s" s="4">
-        <v>13</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="A7" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s" s="6">
+        <v>16</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" t="s" s="6">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s" s="9">
+        <v>4</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="7"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="13"/>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="10"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="15"/>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="13"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="18"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1592,83 +1694,83 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="14" customWidth="1"/>
-    <col min="2" max="2" width="8.85156" style="14" customWidth="1"/>
-    <col min="3" max="3" width="8.85156" style="14" customWidth="1"/>
-    <col min="4" max="4" width="8.85156" style="14" customWidth="1"/>
-    <col min="5" max="5" width="8.85156" style="14" customWidth="1"/>
-    <col min="6" max="256" width="8.85156" style="14" customWidth="1"/>
+    <col min="1" max="1" width="8.85156" style="19" customWidth="1"/>
+    <col min="2" max="2" width="8.85156" style="19" customWidth="1"/>
+    <col min="3" max="3" width="8.85156" style="19" customWidth="1"/>
+    <col min="4" max="4" width="8.85156" style="19" customWidth="1"/>
+    <col min="5" max="5" width="8.85156" style="19" customWidth="1"/>
+    <col min="6" max="256" width="8.85156" style="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
     </row>
     <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
     </row>
     <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1687,83 +1789,83 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="15" customWidth="1"/>
-    <col min="2" max="2" width="8.85156" style="15" customWidth="1"/>
-    <col min="3" max="3" width="8.85156" style="15" customWidth="1"/>
-    <col min="4" max="4" width="8.85156" style="15" customWidth="1"/>
-    <col min="5" max="5" width="8.85156" style="15" customWidth="1"/>
-    <col min="6" max="256" width="8.85156" style="15" customWidth="1"/>
+    <col min="1" max="1" width="8.85156" style="20" customWidth="1"/>
+    <col min="2" max="2" width="8.85156" style="20" customWidth="1"/>
+    <col min="3" max="3" width="8.85156" style="20" customWidth="1"/>
+    <col min="4" max="4" width="8.85156" style="20" customWidth="1"/>
+    <col min="5" max="5" width="8.85156" style="20" customWidth="1"/>
+    <col min="6" max="256" width="8.85156" style="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
     </row>
     <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
     </row>
     <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/spec/fixtures/Small.xlsx
+++ b/spec/fixtures/Small.xlsx
@@ -1,19 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paulkristoff/dev/confirmation/spec/fixtures/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="2300" yWindow="460" windowWidth="15960" windowHeight="16300"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Last Name</t>
   </si>
@@ -41,7 +57,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Calibri"/>
@@ -58,7 +74,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Calibri"/>
@@ -75,7 +91,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Calibri"/>
@@ -92,7 +108,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Calibri"/>
@@ -104,45 +120,38 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <u val="single"/>
+      <b/>
+      <u/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color indexed="11"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="1"/>
-      <u val="single"/>
+      <b/>
+      <i/>
+      <u/>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -332,102 +341,121 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+  <cellStyleXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="21">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="000000D4"/>
+      <rgbColor rgb="00FCF305"/>
+      <rgbColor rgb="00F20884"/>
+      <rgbColor rgb="0000ABEA"/>
+      <rgbColor rgb="00900000"/>
+      <rgbColor rgb="00006411"/>
+      <rgbColor rgb="00000090"/>
+      <rgbColor rgb="0090713A"/>
+      <rgbColor rgb="004600A5"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -553,7 +581,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -562,7 +590,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -571,7 +599,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -645,7 +673,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -653,7 +681,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -672,7 +700,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -702,7 +730,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -728,7 +756,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -754,7 +782,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -780,7 +808,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -806,7 +834,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -832,7 +860,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -858,7 +886,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -884,7 +912,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -910,7 +938,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -923,9 +951,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -940,7 +974,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -948,7 +982,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -967,7 +1001,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -993,7 +1027,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1019,7 +1053,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1045,7 +1079,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1071,7 +1105,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1097,7 +1131,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1123,7 +1157,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1149,7 +1183,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1175,7 +1209,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1201,7 +1235,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1214,9 +1248,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1230,7 +1270,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1249,7 +1289,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1279,7 +1319,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1305,7 +1345,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1331,7 +1371,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1357,7 +1397,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1383,7 +1423,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1409,7 +1449,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1435,7 +1475,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1461,7 +1501,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1487,7 +1527,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1500,66 +1540,73 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85156" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="21.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.8516" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85156" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85156" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85156" style="1" customWidth="1"/>
-    <col min="9" max="256" width="8.85156" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.83203125" style="1" customWidth="1"/>
+    <col min="6" max="8" width="8.83203125" style="1" customWidth="1"/>
+    <col min="9" max="256" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="4">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" t="s" s="6">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s" s="6">
+      <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s" s="6">
+      <c r="C2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s" s="6">
+      <c r="D2" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="5"/>
@@ -1567,17 +1614,17 @@
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="s" s="6">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="6">
+      <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="6">
+      <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s" s="6">
+      <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="5"/>
@@ -1585,7 +1632,7 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" ht="15" customHeight="1">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -1595,7 +1642,7 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" ht="15" customHeight="1">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -1605,43 +1652,43 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="s" s="6">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="s" s="6">
+      <c r="B6" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="5"/>
-      <c r="D6" t="s" s="6">
+      <c r="D6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E6" t="s" s="8">
+      <c r="E6" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="s" s="6">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s" s="6">
+      <c r="B7" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="5"/>
-      <c r="D7" t="s" s="6">
+      <c r="D7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E7" t="s" s="9">
+      <c r="E7" s="9" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" ht="15" customHeight="1">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -1651,7 +1698,7 @@
       <c r="G8" s="11"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" ht="15" customHeight="1">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -1661,7 +1708,7 @@
       <c r="G9" s="12"/>
       <c r="H9" s="15"/>
     </row>
-    <row r="10" ht="15" customHeight="1">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
@@ -1673,13 +1720,13 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" location="" tooltip="" display=""/>
-    <hyperlink ref="D3" r:id="rId2" location="" tooltip="" display=""/>
-    <hyperlink ref="D6" r:id="rId3" location="" tooltip="" display=""/>
-    <hyperlink ref="D7" r:id="rId4" location="" tooltip="" display=""/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D6" r:id="rId3"/>
+    <hyperlink ref="D7" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -1687,85 +1734,81 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="19" customWidth="1"/>
-    <col min="2" max="2" width="8.85156" style="19" customWidth="1"/>
-    <col min="3" max="3" width="8.85156" style="19" customWidth="1"/>
-    <col min="4" max="4" width="8.85156" style="19" customWidth="1"/>
-    <col min="5" max="5" width="8.85156" style="19" customWidth="1"/>
-    <col min="6" max="256" width="8.85156" style="19" customWidth="1"/>
+    <col min="1" max="5" width="8.83203125" style="19" customWidth="1"/>
+    <col min="6" max="256" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" ht="15" customHeight="1">
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" ht="15" customHeight="1">
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" ht="15" customHeight="1">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" ht="15" customHeight="1">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" ht="15" customHeight="1">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" ht="15" customHeight="1">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" ht="15" customHeight="1">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" ht="15" customHeight="1">
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" ht="15" customHeight="1">
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -1774,7 +1817,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -1782,85 +1825,81 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="20" customWidth="1"/>
-    <col min="2" max="2" width="8.85156" style="20" customWidth="1"/>
-    <col min="3" max="3" width="8.85156" style="20" customWidth="1"/>
-    <col min="4" max="4" width="8.85156" style="20" customWidth="1"/>
-    <col min="5" max="5" width="8.85156" style="20" customWidth="1"/>
-    <col min="6" max="256" width="8.85156" style="20" customWidth="1"/>
+    <col min="1" max="5" width="8.83203125" style="20" customWidth="1"/>
+    <col min="6" max="256" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" ht="15" customHeight="1">
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" ht="15" customHeight="1">
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" ht="15" customHeight="1">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" ht="15" customHeight="1">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" ht="15" customHeight="1">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" ht="15" customHeight="1">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" ht="15" customHeight="1">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" ht="15" customHeight="1">
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" ht="15" customHeight="1">
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -1869,7 +1908,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/spec/fixtures/Small.xlsx
+++ b/spec/fixtures/Small.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2300" yWindow="460" windowWidth="15960" windowHeight="16300"/>
+    <workbookView xWindow="13260" yWindow="2560" windowWidth="15960" windowHeight="16300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,18 +29,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>Last Name</t>
-  </si>
-  <si>
-    <t>1st name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grade </t>
-  </si>
-  <si>
-    <t>parents preferred email</t>
   </si>
   <si>
     <t>Cardinal Gibbons HS Group</t>
@@ -116,12 +107,33 @@
       <t>justfaith@kristoffs.com</t>
     </r>
   </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Teen Name</t>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>School</t>
+  </si>
+  <si>
+    <t>Teen Email</t>
+  </si>
+  <si>
+    <t>Parent Email Address(es)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -154,6 +166,12 @@
       <color theme="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -169,49 +187,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="13">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -347,28 +328,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
@@ -1559,171 +1539,221 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.83203125" style="1" customWidth="1"/>
-    <col min="6" max="8" width="8.83203125" style="1" customWidth="1"/>
-    <col min="9" max="256" width="8.83203125" customWidth="1"/>
+    <col min="3" max="3" width="13.5" style="17" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" style="1" customWidth="1"/>
+    <col min="5" max="7" width="8.83203125" style="17" customWidth="1"/>
+    <col min="8" max="8" width="21.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23.83203125" style="1" customWidth="1"/>
+    <col min="10" max="12" width="8.83203125" style="1" customWidth="1"/>
+    <col min="13" max="260" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="J1"/>
+      <c r="K1"/>
+      <c r="L1"/>
+    </row>
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-    </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-    </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-    </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="I6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="13"/>
-    </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="15"/>
-    </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="16"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="18"/>
+      <c r="I7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="10"/>
+    </row>
+    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="11"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="12"/>
+    </row>
+    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="13"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D6" r:id="rId3"/>
-    <hyperlink ref="D7" r:id="rId4"/>
+    <hyperlink ref="H2" r:id="rId1"/>
+    <hyperlink ref="H3" r:id="rId2"/>
+    <hyperlink ref="H6" r:id="rId3"/>
+    <hyperlink ref="H7" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -1741,79 +1771,79 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="8.83203125" style="19" customWidth="1"/>
+    <col min="1" max="5" width="8.83203125" style="16" customWidth="1"/>
     <col min="6" max="256" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1832,79 +1862,79 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="8.83203125" style="20" customWidth="1"/>
+    <col min="1" max="5" width="8.83203125" style="17" customWidth="1"/>
     <col min="6" max="256" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/spec/fixtures/Small.xlsx
+++ b/spec/fixtures/Small.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>Last Name</t>
   </si>
@@ -111,22 +111,13 @@
     <t>First Name</t>
   </si>
   <si>
-    <t>Teen Name</t>
-  </si>
-  <si>
     <t>Grade</t>
   </si>
   <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>School</t>
+    <t>Parent Email Address(es)</t>
   </si>
   <si>
     <t>Teen Email</t>
-  </si>
-  <si>
-    <t>Parent Email Address(es)</t>
   </si>
 </sst>
 </file>
@@ -1539,26 +1530,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5" style="17" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" style="1" customWidth="1"/>
-    <col min="5" max="7" width="8.83203125" style="17" customWidth="1"/>
-    <col min="8" max="8" width="21.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="23.83203125" style="1" customWidth="1"/>
-    <col min="10" max="12" width="8.83203125" style="1" customWidth="1"/>
-    <col min="13" max="260" width="8.83203125" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" style="17" customWidth="1"/>
+    <col min="5" max="5" width="21.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.83203125" style="1" customWidth="1"/>
+    <col min="7" max="9" width="8.83203125" style="1" customWidth="1"/>
+    <col min="10" max="257" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -1569,158 +1559,128 @@
         <v>16</v>
       </c>
       <c r="D1" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="19" t="s">
+      <c r="F1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="J1"/>
-      <c r="K1"/>
-      <c r="L1"/>
-    </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="I1"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-    </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-    </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="E4" s="3"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="3"/>
+      <c r="H4" s="2"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-    </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="E5" s="3"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="3"/>
+      <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-    </row>
-    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="E6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="G6" s="2"/>
-      <c r="H6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-    </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="E7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="G7" s="2"/>
-      <c r="H7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
+      <c r="F8" s="9"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="10"/>
-    </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I8" s="10"/>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -1729,12 +1689,9 @@
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="12"/>
-    </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I9" s="12"/>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
@@ -1743,17 +1700,14 @@
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="15"/>
+      <c r="I10" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1"/>
-    <hyperlink ref="H3" r:id="rId2"/>
-    <hyperlink ref="H6" r:id="rId3"/>
-    <hyperlink ref="H7" r:id="rId4"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E6" r:id="rId3"/>
+    <hyperlink ref="E7" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
